--- a/Summary Statistics.xlsx
+++ b/Summary Statistics.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU9"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,232 +438,237 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>walk_score</t>
+          <t>pop_estimate_2021</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pop_estimate_2021</t>
+          <t>land_area_sqkm</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>land_area_sqkm</t>
+          <t>pop_per_km2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pop_per_km2</t>
+          <t>white_alone</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>white_alone</t>
+          <t>black_or_african_american_alone</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>black_or_african_american_alone</t>
+          <t>american_indian_and_alaska_native_alone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>american_indian_and_alaska_native_alone</t>
+          <t>asian_alone</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>asian_alone</t>
+          <t>native_hawaiian_and_other_pacific_islander_alone</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>native_hawaiian_and_other_pacific_islander_alone</t>
+          <t>some_other_race_alone</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>some_other_race_alone</t>
+          <t>two_or_more_races</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>two_or_more_races</t>
+          <t>hispanic_or_latino</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>hispanic_or_latino</t>
+          <t>median_aqi</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>median_aqi</t>
+          <t>access2</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>access2</t>
+          <t>arthritis</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>arthritis</t>
+          <t>binge</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>binge</t>
+          <t>bphigh</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>bphigh</t>
+          <t>bpmed</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>bpmed</t>
+          <t>cancer</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>cancer</t>
+          <t>casthma</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>casthma</t>
+          <t>cervical</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>cervical</t>
+          <t>chd</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>chd</t>
+          <t>checkup</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>checkup</t>
+          <t>cholscreen</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>cholscreen</t>
+          <t>colon_screen</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>colon_screen</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>corem</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>corem</t>
+          <t>corew</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>corew</t>
+          <t>csmoking</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>csmoking</t>
+          <t>dental</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>dental</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>diabetes</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>diabetes</t>
+          <t>ghlth</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>ghlth</t>
+          <t>highchol</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>highchol</t>
+          <t>kidney</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>kidney</t>
+          <t>lpa</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>lpa</t>
+          <t>mammouse</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>mammouse</t>
+          <t>mhlth</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>mhlth</t>
+          <t>obesity</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>obesity</t>
+          <t>phlth</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>phlth</t>
+          <t>sleep</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>teethlost</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>teethlost</t>
+          <t>cumulative_confirmed</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_confirmed</t>
+          <t>cumulative_deceased</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_deceased</t>
+          <t>living_wage</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>living_wage</t>
+          <t>violent_crime</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>property_crime</t>
         </is>
       </c>
     </row>
@@ -674,7 +679,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C2" t="n">
         <v>724</v>
@@ -707,109 +712,112 @@
         <v>724</v>
       </c>
       <c r="M2" t="n">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="N2" t="n">
-        <v>677</v>
+        <v>727</v>
       </c>
       <c r="O2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="P2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="Q2" t="n">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="R2" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="S2" t="n">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="T2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="U2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="V2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="W2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="X2" t="n">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="Y2" t="n">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="Z2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AA2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AB2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AC2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AD2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AE2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AF2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AG2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AH2" t="n">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="AI2" t="n">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="AJ2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AK2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AL2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AM2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AN2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AO2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AP2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AQ2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AR2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AS2" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="AT2" t="n">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AU2" t="n">
-        <v>723</v>
+        <v>605</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>605</v>
       </c>
     </row>
     <row r="3">
@@ -819,142 +827,145 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.40883977900553</v>
+        <v>151568.4456671252</v>
       </c>
       <c r="C3" t="n">
-        <v>150769.908839779</v>
+        <v>130.6737032969613</v>
       </c>
       <c r="D3" t="n">
-        <v>130.6737032969613</v>
+        <v>1587.638018384059</v>
       </c>
       <c r="E3" t="n">
-        <v>1587.638018384059</v>
+        <v>0.5316912570131291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5316912570131291</v>
+        <v>0.1292099627229099</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1292099627229099</v>
+        <v>0.01069475527082755</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01069475527082755</v>
+        <v>0.08406920496306142</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08406920496306142</v>
+        <v>0.002870154681422498</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002870154681422497</v>
+        <v>0.116476941000069</v>
       </c>
       <c r="K3" t="n">
-        <v>0.116476941000069</v>
+        <v>0.1230709320863467</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1230709320863467</v>
+        <v>0.2518922155799999</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2518922155799999</v>
+        <v>47.14558823529412</v>
       </c>
       <c r="N3" t="n">
-        <v>47.16100443131462</v>
+        <v>16.09181568088033</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1082182320442</v>
+        <v>22.16031636863824</v>
       </c>
       <c r="P3" t="n">
-        <v>22.15580110497238</v>
+        <v>16.81341127922971</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.81940607734807</v>
+        <v>29.64036568213784</v>
       </c>
       <c r="R3" t="n">
-        <v>29.63276836158192</v>
+        <v>63.7767229254571</v>
       </c>
       <c r="S3" t="n">
-        <v>63.76271186440678</v>
+        <v>5.912310866574965</v>
       </c>
       <c r="T3" t="n">
-        <v>5.912154696132596</v>
+        <v>9.669532324621732</v>
       </c>
       <c r="U3" t="n">
-        <v>9.666298342541436</v>
+        <v>81.74009628610729</v>
       </c>
       <c r="V3" t="n">
-        <v>81.73715469613261</v>
+        <v>5.808872077028885</v>
       </c>
       <c r="W3" t="n">
-        <v>5.80842541436464</v>
+        <v>71.85247592847318</v>
       </c>
       <c r="X3" t="n">
-        <v>71.83494475138122</v>
+        <v>85.62025316455694</v>
       </c>
       <c r="Y3" t="n">
-        <v>85.61998587570621</v>
+        <v>68.68672627235213</v>
       </c>
       <c r="Z3" t="n">
-        <v>68.67023480662982</v>
+        <v>5.922558459422285</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.920925414364641</v>
+        <v>43.09167812929849</v>
       </c>
       <c r="AB3" t="n">
-        <v>43.07382596685083</v>
+        <v>36.95722145804677</v>
       </c>
       <c r="AC3" t="n">
-        <v>36.94640883977901</v>
+        <v>14.56361760660248</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.55290055248619</v>
+        <v>63.51059147180192</v>
       </c>
       <c r="AE3" t="n">
-        <v>63.50193370165746</v>
+        <v>19.1933287482806</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.19261049723757</v>
+        <v>10.31932599724897</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.3189226519337</v>
+        <v>14.4222833562586</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.42396408839779</v>
+        <v>29.8049929676512</v>
       </c>
       <c r="AI3" t="n">
-        <v>29.80642655367232</v>
+        <v>2.807496561210454</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.807458563535911</v>
+        <v>22.55735900962861</v>
       </c>
       <c r="AK3" t="n">
-        <v>22.5506906077348</v>
+        <v>72.44037138927099</v>
       </c>
       <c r="AL3" t="n">
-        <v>72.43169889502762</v>
+        <v>14.36127922971114</v>
       </c>
       <c r="AM3" t="n">
-        <v>14.36146408839779</v>
+        <v>31.49965612104539</v>
       </c>
       <c r="AN3" t="n">
-        <v>31.49095303867404</v>
+        <v>9.835144429160936</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.835773480662985</v>
+        <v>33.10715268225585</v>
       </c>
       <c r="AP3" t="n">
-        <v>33.09813535911603</v>
+        <v>2.842847317744154</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.842541436464088</v>
+        <v>10.19422283356259</v>
       </c>
       <c r="AR3" t="n">
-        <v>10.18915745856354</v>
+        <v>0.4955006846694207</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.4962495586077957</v>
+        <v>0.00555308887857881</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.005563083079691751</v>
+        <v>38852.12121212122</v>
       </c>
       <c r="AU3" t="n">
-        <v>38862.1908713693</v>
+        <v>0.004152183029285801</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.02502662276730857</v>
       </c>
     </row>
     <row r="4">
@@ -964,142 +975,145 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.00989421883298</v>
+        <v>253305.2776478525</v>
       </c>
       <c r="C4" t="n">
-        <v>252295.9132619592</v>
+        <v>182.0380340115868</v>
       </c>
       <c r="D4" t="n">
-        <v>182.0380340115868</v>
+        <v>1473.152226271114</v>
       </c>
       <c r="E4" t="n">
-        <v>1473.152226271115</v>
+        <v>0.1973395481895356</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1973395481895356</v>
+        <v>0.1462969246401834</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1462969246401834</v>
+        <v>0.0106149703915962</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0106149703915962</v>
+        <v>0.108867762607118</v>
       </c>
       <c r="I4" t="n">
-        <v>0.108867762607118</v>
+        <v>0.006291857280952929</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006291857280952929</v>
+        <v>0.1098381608371342</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1098381608371342</v>
+        <v>0.06264378863788501</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06264378863788501</v>
+        <v>0.2075687006802315</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2075687006802315</v>
+        <v>17.37274738323469</v>
       </c>
       <c r="N4" t="n">
-        <v>17.40406716888932</v>
+        <v>6.837126086119432</v>
       </c>
       <c r="O4" t="n">
-        <v>6.844488105730576</v>
+        <v>3.107948272052881</v>
       </c>
       <c r="P4" t="n">
-        <v>3.113427537445745</v>
+        <v>2.260884825212324</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.262871541553558</v>
+        <v>3.786599147721455</v>
       </c>
       <c r="R4" t="n">
-        <v>3.788423103302228</v>
+        <v>3.813130994084932</v>
       </c>
       <c r="S4" t="n">
-        <v>3.81270313869191</v>
+        <v>0.6333557895223065</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6343204493531187</v>
+        <v>0.9065894683780886</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9061436837493868</v>
+        <v>2.511802359391477</v>
       </c>
       <c r="V4" t="n">
-        <v>2.507877089234679</v>
+        <v>0.804584209906461</v>
       </c>
       <c r="W4" t="n">
-        <v>0.805422155032966</v>
+        <v>4.604071372185421</v>
       </c>
       <c r="X4" t="n">
-        <v>4.604724391202484</v>
+        <v>2.332350067469694</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.334134108524042</v>
+        <v>6.368349921918571</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.373541767435809</v>
+        <v>1.259170242148684</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.26013483656479</v>
+        <v>6.783987705695108</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.78876263147338</v>
+        <v>6.250192238073343</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.259328933998288</v>
+        <v>3.496684810429907</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.494592524747999</v>
+        <v>6.198782810146295</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.203272604016998</v>
+        <v>3.092191165573028</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.093851924687927</v>
+        <v>1.798348634041067</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.800336436849668</v>
+        <v>3.359494585501197</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.362053668941666</v>
+        <v>2.100244712423567</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.102410975123073</v>
+        <v>0.3348072998285155</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.3351466386125841</v>
+        <v>4.340178128096442</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.342304468572149</v>
+        <v>3.874187482525699</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.879141477639039</v>
+        <v>1.434712087681864</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.434614491311485</v>
+        <v>5.274307158033827</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.279047710867419</v>
+        <v>1.591837201067927</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.59286682183524</v>
+        <v>3.330288789927147</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.330723732868796</v>
+        <v>0.4420211001350033</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.4424637481253419</v>
+        <v>2.556523750293354</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.553295645416759</v>
+        <v>0.3343853934391917</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.3347635806137366</v>
+        <v>0.004830401348395096</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.004836067137608618</v>
+        <v>6538.911182308178</v>
       </c>
       <c r="AU4" t="n">
-        <v>6548.871895797167</v>
+        <v>0.003152343704017043</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.01195879668582013</v>
       </c>
     </row>
     <row r="5">
@@ -1109,142 +1123,145 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>50104</v>
       </c>
       <c r="C5" t="n">
-        <v>50104</v>
+        <v>3.23803</v>
       </c>
       <c r="D5" t="n">
-        <v>3.23803</v>
+        <v>99.54163110189056</v>
       </c>
       <c r="E5" t="n">
-        <v>99.54163110189056</v>
+        <v>0.0298100227856551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0298100227856551</v>
+        <v>0.0029612156041005</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0029612156041005</v>
+        <v>0.0012399755225611</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0012399755225611</v>
+        <v>0.0019173069886571</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0019173069886571</v>
+        <v>7.528514247713214e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>7.528514247713214e-05</v>
+        <v>0.0073367697594501</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0073367697594501</v>
+        <v>0.0242052336723178</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0242052336723178</v>
+        <v>0.0198678125558224</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0198678125558224</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>5.6</v>
+        <v>16.2</v>
       </c>
       <c r="P5" t="n">
-        <v>16.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.699999999999999</v>
+        <v>20.75</v>
       </c>
       <c r="R5" t="n">
-        <v>20.75</v>
+        <v>53.05</v>
       </c>
       <c r="S5" t="n">
-        <v>53.05</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="U5" t="n">
-        <v>7.8</v>
+        <v>71.94999999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>71.94999999999999</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>4.300000000000001</v>
+        <v>64.05000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>64.05000000000001</v>
+        <v>78.55000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.55000000000001</v>
+        <v>54.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>54.9</v>
+        <v>3.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.75</v>
+        <v>29.95</v>
       </c>
       <c r="AB5" t="n">
-        <v>29.95</v>
+        <v>24.45</v>
       </c>
       <c r="AC5" t="n">
-        <v>24.45</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>42.55</v>
       </c>
       <c r="AE5" t="n">
-        <v>42.55</v>
+        <v>12.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.300000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.25</v>
+        <v>23.65</v>
       </c>
       <c r="AI5" t="n">
-        <v>23.65</v>
+        <v>2.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.2</v>
+        <v>12.35</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.35</v>
+        <v>60.35</v>
       </c>
       <c r="AL5" t="n">
-        <v>60.35</v>
+        <v>10.35</v>
       </c>
       <c r="AM5" t="n">
-        <v>10.35</v>
+        <v>17.35</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.35</v>
+        <v>6.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.25</v>
+        <v>23.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23.5</v>
+        <v>2.05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.05</v>
+        <v>5.449999999999999</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.449999999999999</v>
+        <v>0.0224467130835931</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0224467130835931</v>
+        <v>0.000384434667464</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.000384434667464</v>
+        <v>29353</v>
       </c>
       <c r="AU5" t="n">
-        <v>29353</v>
+        <v>0.0003160181710448</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.005377941526028</v>
       </c>
     </row>
     <row r="6">
@@ -1254,142 +1271,145 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>64269</v>
       </c>
       <c r="C6" t="n">
-        <v>64278</v>
+        <v>48.54518625</v>
       </c>
       <c r="D6" t="n">
-        <v>48.54518625</v>
+        <v>807.8513791132555</v>
       </c>
       <c r="E6" t="n">
-        <v>807.8513791132555</v>
+        <v>0.3979896837750905</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3979896837750905</v>
+        <v>0.02970198320746053</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02970198320746053</v>
+        <v>0.00428329502355385</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00428329502355385</v>
+        <v>0.02357607686112595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02357607686112595</v>
+        <v>0.000479497761601725</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000479497761601725</v>
+        <v>0.03641177825589312</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03641177825589312</v>
+        <v>0.07909978667347856</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07909978667347856</v>
+        <v>0.09093697358330372</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09093697358330372</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
-        <v>38</v>
+        <v>11.275</v>
       </c>
       <c r="O6" t="n">
-        <v>11.3375</v>
+        <v>19.75</v>
       </c>
       <c r="P6" t="n">
-        <v>19.75</v>
+        <v>15.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.6</v>
+        <v>26.3</v>
       </c>
       <c r="R6" t="n">
-        <v>26.3</v>
+        <v>60.35</v>
       </c>
       <c r="S6" t="n">
-        <v>60.35</v>
+        <v>5.45</v>
       </c>
       <c r="T6" t="n">
-        <v>5.45</v>
+        <v>9</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>80.27500000000001</v>
       </c>
       <c r="V6" t="n">
-        <v>80.28749999999999</v>
+        <v>5.15</v>
       </c>
       <c r="W6" t="n">
-        <v>5.15</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>68.15000000000001</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>84.15000000000001</v>
+        <v>62.45</v>
       </c>
       <c r="Z6" t="n">
-        <v>62.45</v>
+        <v>5.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.1</v>
+        <v>38.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>38.6</v>
+        <v>32.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>32.3875</v>
+        <v>11.75</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.725</v>
+        <v>59.65000000000001</v>
       </c>
       <c r="AE6" t="n">
-        <v>59.65000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.199999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.8875</v>
+        <v>27.95</v>
       </c>
       <c r="AI6" t="n">
-        <v>27.95</v>
+        <v>2.55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.55</v>
+        <v>19.6</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.55</v>
+        <v>69.44999999999999</v>
       </c>
       <c r="AL6" t="n">
-        <v>69.4375</v>
+        <v>13.35</v>
       </c>
       <c r="AM6" t="n">
-        <v>13.35</v>
+        <v>28.3</v>
       </c>
       <c r="AN6" t="n">
-        <v>28.3</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.600000000000001</v>
+        <v>31</v>
       </c>
       <c r="AP6" t="n">
-        <v>30.975</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.5</v>
+        <v>8.15</v>
       </c>
       <c r="AR6" t="n">
-        <v>8.15</v>
+        <v>0.322849250496184</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.3234020518743968</v>
+        <v>0.0027096186323105</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.002712373150933025</v>
+        <v>34227</v>
       </c>
       <c r="AU6" t="n">
-        <v>34235</v>
+        <v>0.0019279851636951</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0167046708348657</v>
       </c>
     </row>
     <row r="7">
@@ -1399,142 +1419,145 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>86866</v>
       </c>
       <c r="C7" t="n">
-        <v>86851</v>
+        <v>79.956018</v>
       </c>
       <c r="D7" t="n">
-        <v>79.956018</v>
+        <v>1186.835138091503</v>
       </c>
       <c r="E7" t="n">
-        <v>1186.835138091503</v>
+        <v>0.5380747114629696</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5380747114629696</v>
+        <v>0.0723204805015923</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0723204805015923</v>
+        <v>0.0076654926910223</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0076654926910223</v>
+        <v>0.04469607948078</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04469607948078</v>
+        <v>0.0009228900332005001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0009228900332005001</v>
+        <v>0.07825892693682091</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07825892693682091</v>
+        <v>0.1133689124865774</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1133689124865774</v>
+        <v>0.1874745617625158</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1874745617625158</v>
+        <v>42</v>
       </c>
       <c r="N7" t="n">
-        <v>42</v>
+        <v>14.55</v>
       </c>
       <c r="O7" t="n">
-        <v>14.55</v>
+        <v>21.5</v>
       </c>
       <c r="P7" t="n">
-        <v>21.5</v>
+        <v>16.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.65</v>
+        <v>29.1</v>
       </c>
       <c r="R7" t="n">
-        <v>29.1</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>64.59999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="T7" t="n">
-        <v>5.9</v>
+        <v>9.6</v>
       </c>
       <c r="U7" t="n">
-        <v>9.6</v>
+        <v>81.55</v>
       </c>
       <c r="V7" t="n">
-        <v>81.55</v>
+        <v>5.75</v>
       </c>
       <c r="W7" t="n">
-        <v>5.75</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>72.05000000000001</v>
+        <v>85.80000000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.85000000000001</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>69.84999999999999</v>
+        <v>5.85</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.85</v>
+        <v>43.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>43.52500000000001</v>
+        <v>36.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>36.8</v>
+        <v>14.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.55</v>
+        <v>63.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>63.6</v>
+        <v>19.1</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.1</v>
+        <v>10.25</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.25</v>
+        <v>14.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.1</v>
+        <v>29.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>29.75</v>
+        <v>2.8</v>
       </c>
       <c r="AJ7" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>2.8</v>
       </c>
-      <c r="AK7" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>33.5</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>2.8</v>
+        <v>10.2</v>
       </c>
       <c r="AR7" t="n">
-        <v>10.225</v>
+        <v>0.3987232556025056</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3987232556025056</v>
+        <v>0.0042720950852587</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0042736301310475</v>
+        <v>37075</v>
       </c>
       <c r="AU7" t="n">
-        <v>37075</v>
+        <v>0.0035063413060291</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0224228672276322</v>
       </c>
     </row>
     <row r="8">
@@ -1544,142 +1567,145 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>135569.5</v>
       </c>
       <c r="C8" t="n">
-        <v>135488.25</v>
+        <v>137.0203885</v>
       </c>
       <c r="D8" t="n">
-        <v>137.0203885</v>
+        <v>1835.651650234831</v>
       </c>
       <c r="E8" t="n">
-        <v>1835.651650234831</v>
+        <v>0.6913169405024084</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6913169405024084</v>
+        <v>0.1785258064438914</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1785258064438914</v>
+        <v>0.01340074757968867</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01340074757968867</v>
+        <v>0.09495357907140285</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09495357907140285</v>
+        <v>0.002776849042682875</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002776849042682875</v>
+        <v>0.1573103299039412</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1573103299039412</v>
+        <v>0.1497951301074116</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1497951301074116</v>
+        <v>0.3613203037710159</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3613203037710159</v>
+        <v>49</v>
       </c>
       <c r="N8" t="n">
-        <v>49</v>
+        <v>18.475</v>
       </c>
       <c r="O8" t="n">
-        <v>18.5</v>
+        <v>24.15</v>
       </c>
       <c r="P8" t="n">
-        <v>24.1625</v>
+        <v>18</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.0125</v>
+        <v>31.75</v>
       </c>
       <c r="R8" t="n">
-        <v>31.75</v>
+        <v>66.75</v>
       </c>
       <c r="S8" t="n">
-        <v>66.75</v>
+        <v>6.35</v>
       </c>
       <c r="T8" t="n">
-        <v>6.35</v>
+        <v>10.15</v>
       </c>
       <c r="U8" t="n">
-        <v>10.15</v>
+        <v>83.44999999999999</v>
       </c>
       <c r="V8" t="n">
-        <v>83.44999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="W8" t="n">
-        <v>6.3</v>
+        <v>75.625</v>
       </c>
       <c r="X8" t="n">
-        <v>75.5625</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.15000000000001</v>
+        <v>73.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>73.75</v>
+        <v>6.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.7</v>
+        <v>48.15000000000001</v>
       </c>
       <c r="AB8" t="n">
-        <v>48.125</v>
+        <v>42.275</v>
       </c>
       <c r="AC8" t="n">
-        <v>42.2625</v>
+        <v>16.85</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.85</v>
+        <v>67.47499999999999</v>
       </c>
       <c r="AE8" t="n">
-        <v>67.41249999999999</v>
+        <v>21.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>21.5</v>
+        <v>11.35</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.35</v>
+        <v>16.7</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.7</v>
+        <v>31.2</v>
       </c>
       <c r="AI8" t="n">
-        <v>31.2125</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>25.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>25.5</v>
+        <v>75.27500000000001</v>
       </c>
       <c r="AL8" t="n">
-        <v>75.2625</v>
+        <v>15.15</v>
       </c>
       <c r="AM8" t="n">
-        <v>15.15</v>
+        <v>35.725</v>
       </c>
       <c r="AN8" t="n">
-        <v>35.71250000000001</v>
+        <v>10.95</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.95</v>
+        <v>35.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>35.25</v>
+        <v>3.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>12</v>
+        <v>0.5853104129337471</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5868468955940884</v>
+        <v>0.0065750032326446</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.00657950270606965</v>
+        <v>42241</v>
       </c>
       <c r="AU8" t="n">
-        <v>42241</v>
+        <v>0.005624163627913</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.0317720380364944</v>
       </c>
     </row>
     <row r="9">
@@ -1689,142 +1715,145 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>3849297</v>
       </c>
       <c r="C9" t="n">
-        <v>3849297</v>
+        <v>1935.461994</v>
       </c>
       <c r="D9" t="n">
-        <v>1935.461994</v>
+        <v>19691.36652467691</v>
       </c>
       <c r="E9" t="n">
-        <v>19691.36652467691</v>
+        <v>0.8772403390032352</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8772403390032352</v>
+        <v>0.8957771125949804</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8957771125949804</v>
+        <v>0.1293053659561062</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1293053659561062</v>
+        <v>0.7277084966989603</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7277084966989603</v>
+        <v>0.0994304238149048</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0994304238149048</v>
+        <v>0.624636492431586</v>
       </c>
       <c r="K9" t="n">
-        <v>0.624636492431586</v>
+        <v>0.589995011111615</v>
       </c>
       <c r="L9" t="n">
-        <v>0.589995011111615</v>
+        <v>0.9877339497427484</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9877339497427484</v>
+        <v>122</v>
       </c>
       <c r="N9" t="n">
-        <v>122</v>
+        <v>49.85</v>
       </c>
       <c r="O9" t="n">
-        <v>49.85</v>
+        <v>31.95</v>
       </c>
       <c r="P9" t="n">
-        <v>31.95</v>
+        <v>24.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.95</v>
+        <v>44.6</v>
       </c>
       <c r="R9" t="n">
-        <v>44.6</v>
+        <v>72</v>
       </c>
       <c r="S9" t="n">
-        <v>72</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>8.550000000000001</v>
+        <v>12.95</v>
       </c>
       <c r="U9" t="n">
-        <v>12.95</v>
+        <v>87.5</v>
       </c>
       <c r="V9" t="n">
-        <v>87.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>9.199999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>82.19999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>90.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>82.59999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.8</v>
+        <v>59.45</v>
       </c>
       <c r="AB9" t="n">
-        <v>59.45</v>
+        <v>52.55</v>
       </c>
       <c r="AC9" t="n">
-        <v>52.55</v>
+        <v>23.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>23.4</v>
+        <v>77.44999999999999</v>
       </c>
       <c r="AE9" t="n">
-        <v>77.44999999999999</v>
+        <v>27.55</v>
       </c>
       <c r="AF9" t="n">
-        <v>27.55</v>
+        <v>18.55</v>
       </c>
       <c r="AG9" t="n">
-        <v>18.55</v>
+        <v>28.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>28.4</v>
+        <v>38.45</v>
       </c>
       <c r="AI9" t="n">
-        <v>38.45</v>
+        <v>4.15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.15</v>
+        <v>37.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>37.6</v>
+        <v>83.45</v>
       </c>
       <c r="AL9" t="n">
-        <v>83.45</v>
+        <v>17.9</v>
       </c>
       <c r="AM9" t="n">
-        <v>17.9</v>
+        <v>48.85</v>
       </c>
       <c r="AN9" t="n">
-        <v>48.85</v>
+        <v>15.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>15.3</v>
+        <v>42.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>42.5</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5</v>
+        <v>19.45</v>
       </c>
       <c r="AR9" t="n">
-        <v>19.45</v>
+        <v>4.373843816702882</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.373843816702882</v>
+        <v>0.06424629348306821</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.06424629348306821</v>
+        <v>64090</v>
       </c>
       <c r="AU9" t="n">
-        <v>64090</v>
+        <v>0.0206177742922917</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0864870895365125</v>
       </c>
     </row>
   </sheetData>
@@ -1838,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU9"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1849,232 +1878,237 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>walk_score</t>
+          <t>pop_estimate_2021</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pop_estimate_2021</t>
+          <t>land_area_sqkm</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>land_area_sqkm</t>
+          <t>pop_per_km2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pop_per_km2</t>
+          <t>white_alone</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>white_alone</t>
+          <t>black_or_african_american_alone</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>black_or_african_american_alone</t>
+          <t>american_indian_and_alaska_native_alone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>american_indian_and_alaska_native_alone</t>
+          <t>asian_alone</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>asian_alone</t>
+          <t>native_hawaiian_and_other_pacific_islander_alone</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>native_hawaiian_and_other_pacific_islander_alone</t>
+          <t>some_other_race_alone</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>some_other_race_alone</t>
+          <t>two_or_more_races</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>two_or_more_races</t>
+          <t>hispanic_or_latino</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>hispanic_or_latino</t>
+          <t>median_aqi</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>median_aqi</t>
+          <t>access2</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>access2</t>
+          <t>arthritis</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>arthritis</t>
+          <t>binge</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>binge</t>
+          <t>bphigh</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>bphigh</t>
+          <t>bpmed</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>bpmed</t>
+          <t>cancer</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>cancer</t>
+          <t>casthma</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>casthma</t>
+          <t>cervical</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>cervical</t>
+          <t>chd</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>chd</t>
+          <t>checkup</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>checkup</t>
+          <t>cholscreen</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>cholscreen</t>
+          <t>colon_screen</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>colon_screen</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>corem</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>corem</t>
+          <t>corew</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>corew</t>
+          <t>csmoking</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>csmoking</t>
+          <t>dental</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>dental</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>diabetes</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>diabetes</t>
+          <t>ghlth</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>ghlth</t>
+          <t>highchol</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>highchol</t>
+          <t>kidney</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>kidney</t>
+          <t>lpa</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>lpa</t>
+          <t>mammouse</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>mammouse</t>
+          <t>mhlth</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>mhlth</t>
+          <t>obesity</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>obesity</t>
+          <t>phlth</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>phlth</t>
+          <t>sleep</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>teethlost</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>teethlost</t>
+          <t>cumulative_confirmed</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_confirmed</t>
+          <t>cumulative_deceased</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_deceased</t>
+          <t>living_wage</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>living_wage</t>
+          <t>violent_crime</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>property_crime</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2119,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C2" t="n">
         <v>184</v>
@@ -2118,109 +2152,112 @@
         <v>184</v>
       </c>
       <c r="M2" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N2" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="R2" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S2" t="n">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="T2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X2" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="Y2" t="n">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Z2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AE2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AH2" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AI2" t="n">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AJ2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AP2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AQ2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AR2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AS2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AT2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AU2" t="n">
-        <v>184</v>
+        <v>168</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="3">
@@ -2230,142 +2267,145 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.72826086956522</v>
+        <v>191765.7351351351</v>
       </c>
       <c r="C3" t="n">
-        <v>192323.625</v>
+        <v>79.03140709239131</v>
       </c>
       <c r="D3" t="n">
-        <v>79.03140709239131</v>
+        <v>3095.548718720952</v>
       </c>
       <c r="E3" t="n">
-        <v>3095.548718720952</v>
+        <v>0.4151388004609371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4151388004609371</v>
+        <v>0.1313612478839112</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1313612478839112</v>
+        <v>0.01144606409516788</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01144606409516788</v>
+        <v>0.1346485770962742</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1346485770962742</v>
+        <v>0.002549372110786986</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002549372110786986</v>
+        <v>0.1815793625926989</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1815793625926989</v>
+        <v>0.1352576807841603</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1352576807841603</v>
+        <v>0.3399665752114068</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3399665752114068</v>
+        <v>48.43956043956044</v>
       </c>
       <c r="N3" t="n">
-        <v>48.49723756906077</v>
+        <v>13.57945945945946</v>
       </c>
       <c r="O3" t="n">
-        <v>13.59809782608696</v>
+        <v>20.57216216216217</v>
       </c>
       <c r="P3" t="n">
-        <v>20.56141304347826</v>
+        <v>16.7172972972973</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.72907608695652</v>
+        <v>27.57382352941177</v>
       </c>
       <c r="R3" t="n">
-        <v>27.56775147928994</v>
+        <v>62.75235294117648</v>
       </c>
       <c r="S3" t="n">
-        <v>62.74408284023669</v>
+        <v>5.747837837837837</v>
       </c>
       <c r="T3" t="n">
-        <v>5.748369565217391</v>
+        <v>9.576756756756758</v>
       </c>
       <c r="U3" t="n">
-        <v>9.576902173913044</v>
+        <v>82.24135135135134</v>
       </c>
       <c r="V3" t="n">
-        <v>82.25951086956522</v>
+        <v>5.466486486486486</v>
       </c>
       <c r="W3" t="n">
-        <v>5.467391304347826</v>
+        <v>71.17648648648648</v>
       </c>
       <c r="X3" t="n">
-        <v>71.1421195652174</v>
+        <v>86.75999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>86.7757396449704</v>
+        <v>67.69567567567567</v>
       </c>
       <c r="Z3" t="n">
-        <v>67.68722826086957</v>
+        <v>5.394594594594595</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.394021739130435</v>
+        <v>40.81810810810811</v>
       </c>
       <c r="AB3" t="n">
-        <v>40.79510869565217</v>
+        <v>35.58189189189189</v>
       </c>
       <c r="AC3" t="n">
-        <v>35.56657608695652</v>
+        <v>12.53</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.51684782608696</v>
+        <v>65.37702702702703</v>
       </c>
       <c r="AE3" t="n">
-        <v>65.36684782608695</v>
+        <v>17.41486486486486</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.42146739130435</v>
+        <v>9.821621621621622</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.825543478260871</v>
+        <v>13.46648648648649</v>
       </c>
       <c r="AH3" t="n">
-        <v>13.47309782608696</v>
+        <v>28.81970588235294</v>
       </c>
       <c r="AI3" t="n">
-        <v>28.82810650887575</v>
+        <v>2.711081081081081</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.711684782608696</v>
+        <v>21.53621621621621</v>
       </c>
       <c r="AK3" t="n">
-        <v>21.53722826086957</v>
+        <v>73.49810810810811</v>
       </c>
       <c r="AL3" t="n">
-        <v>73.50027173913043</v>
+        <v>13.76162162162163</v>
       </c>
       <c r="AM3" t="n">
-        <v>13.76766304347826</v>
+        <v>27.83540540540541</v>
       </c>
       <c r="AN3" t="n">
-        <v>27.825</v>
+        <v>9.195135135135134</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.199184782608697</v>
+        <v>32.75729729729729</v>
       </c>
       <c r="AP3" t="n">
-        <v>32.76086956521739</v>
+        <v>2.686216216216216</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.686413043478261</v>
+        <v>9.04945945945946</v>
       </c>
       <c r="AR3" t="n">
-        <v>9.044565217391304</v>
+        <v>0.5135944467922788</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5143400388777613</v>
+        <v>0.005790695676543208</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.00581314079413803</v>
+        <v>44242.24864864865</v>
       </c>
       <c r="AU3" t="n">
-        <v>44288.82608695652</v>
+        <v>0.004804166296789316</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.02452313131842081</v>
       </c>
     </row>
     <row r="4">
@@ -2375,142 +2415,145 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.06927183118341</v>
+        <v>386116.5178463818</v>
       </c>
       <c r="C4" t="n">
-        <v>387095.270590759</v>
+        <v>144.2477889512584</v>
       </c>
       <c r="D4" t="n">
-        <v>144.2477889512584</v>
+        <v>2203.263543053787</v>
       </c>
       <c r="E4" t="n">
-        <v>2203.263543053787</v>
+        <v>0.2028613993619311</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2028613993619311</v>
+        <v>0.1504857602739946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1504857602739946</v>
+        <v>0.008208143138184302</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008208143138184302</v>
+        <v>0.149125743131256</v>
       </c>
       <c r="I4" t="n">
-        <v>0.149125743131256</v>
+        <v>0.004210338752765472</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004210338752765472</v>
+        <v>0.1426950998077559</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1426950998077559</v>
+        <v>0.06274779121869509</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06274779121869509</v>
+        <v>0.2391257612784922</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2391257612784922</v>
+        <v>16.17187299136414</v>
       </c>
       <c r="N4" t="n">
-        <v>16.19795059375388</v>
+        <v>4.783552519438661</v>
       </c>
       <c r="O4" t="n">
-        <v>4.789863975982048</v>
+        <v>3.010632548672411</v>
       </c>
       <c r="P4" t="n">
-        <v>3.0152853154189</v>
+        <v>1.893444997893259</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.891802770099224</v>
+        <v>2.943160775983745</v>
       </c>
       <c r="R4" t="n">
-        <v>2.95083901059364</v>
+        <v>3.759527588054957</v>
       </c>
       <c r="S4" t="n">
-        <v>3.769148794615806</v>
+        <v>0.6260822592117167</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6277486482721091</v>
+        <v>0.9874485513676751</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9901408362569759</v>
+        <v>2.215399613282779</v>
       </c>
       <c r="V4" t="n">
-        <v>2.207594759649521</v>
+        <v>0.6675198100635381</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6692273818868605</v>
+        <v>5.58774873788155</v>
       </c>
       <c r="X4" t="n">
-        <v>5.583355471795064</v>
+        <v>1.796500543051248</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.790044447014645</v>
+        <v>7.378041576389884</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.397275560509022</v>
+        <v>0.9921556312946842</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9948320667604571</v>
+        <v>7.621664216103444</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.636019976467902</v>
+        <v>6.416544867117145</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.430660821041026</v>
+        <v>3.143161140718328</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.146628668387257</v>
+        <v>5.030267013001562</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.042081261951894</v>
+        <v>2.783722700634989</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.789865249115175</v>
+        <v>1.434168660707677</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.437086734422219</v>
+        <v>2.733346030584898</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.739320379835704</v>
+        <v>1.696919389936223</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.698413114538378</v>
+        <v>0.2847556521539257</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2854138756663792</v>
+        <v>3.820121463576091</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.830519865424997</v>
+        <v>4.123063997487738</v>
       </c>
       <c r="AL4" t="n">
-        <v>4.134208540171046</v>
+        <v>1.337792051644428</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.338909300642901</v>
+        <v>4.685886298813214</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.696528191034344</v>
+        <v>1.339868629230407</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.342388739713774</v>
+        <v>3.009308609610036</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.017126216425925</v>
+        <v>0.3749445709132809</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.3759580302170386</v>
+        <v>2.125115017278536</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.129867700575075</v>
+        <v>0.3404873641066445</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.3412649212744969</v>
+        <v>0.004871203705206025</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.004874892917561709</v>
+        <v>7506.536311399524</v>
       </c>
       <c r="AU4" t="n">
-        <v>7500.163837348842</v>
+        <v>0.003391453069152705</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.01163962581824847</v>
       </c>
     </row>
     <row r="5">
@@ -2520,142 +2563,145 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>50104</v>
       </c>
       <c r="C5" t="n">
-        <v>50104</v>
+        <v>3.23803</v>
       </c>
       <c r="D5" t="n">
-        <v>3.23803</v>
+        <v>500.5087425576257</v>
       </c>
       <c r="E5" t="n">
-        <v>500.5087425576257</v>
+        <v>0.0298100227856551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0298100227856551</v>
+        <v>0.0056124987560951</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0056124987560951</v>
+        <v>0.0012399755225611</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0012399755225611</v>
+        <v>0.004535353077237</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004535353077237</v>
+        <v>0.0001043131207764</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001043131207764</v>
+        <v>0.009680258140217</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009680258140217</v>
+        <v>0.049338776594399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.049338776594399</v>
+        <v>0.0324422726837213</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0324422726837213</v>
+        <v>19</v>
       </c>
       <c r="N5" t="n">
-        <v>19</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>5.6</v>
+        <v>16.2</v>
       </c>
       <c r="P5" t="n">
-        <v>16.2</v>
+        <v>12.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.3</v>
+        <v>21.4</v>
       </c>
       <c r="R5" t="n">
-        <v>21.4</v>
+        <v>57</v>
       </c>
       <c r="S5" t="n">
-        <v>57</v>
+        <v>4.65</v>
       </c>
       <c r="T5" t="n">
-        <v>4.65</v>
+        <v>7.9</v>
       </c>
       <c r="U5" t="n">
-        <v>7.9</v>
+        <v>78.25</v>
       </c>
       <c r="V5" t="n">
-        <v>78.25</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>4.300000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>64.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="n">
-        <v>80</v>
+        <v>54.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>54.9</v>
+        <v>3.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.75</v>
+        <v>29.95</v>
       </c>
       <c r="AB5" t="n">
-        <v>29.95</v>
+        <v>25.4</v>
       </c>
       <c r="AC5" t="n">
+        <v>8.350000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.300000000000001</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AH5" t="n">
         <v>25.4</v>
       </c>
-      <c r="AD5" t="n">
-        <v>8.350000000000001</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>50.75</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6.300000000000001</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.35</v>
-      </c>
       <c r="AI5" t="n">
-        <v>25.4</v>
+        <v>2.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.2</v>
+        <v>12.85</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.85</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="AL5" t="n">
-        <v>65.65000000000001</v>
+        <v>11</v>
       </c>
       <c r="AM5" t="n">
-        <v>11</v>
+        <v>17.35</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.35</v>
+        <v>6.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.25</v>
+        <v>23.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23.5</v>
+        <v>2.1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.5</v>
+        <v>0.0880549379617012</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0880549379617012</v>
+        <v>0.001325810941347</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.001325810941347</v>
+        <v>31591</v>
       </c>
       <c r="AU5" t="n">
-        <v>31591</v>
+        <v>0.0005603009616594</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0058317038866591</v>
       </c>
     </row>
     <row r="6">
@@ -2665,142 +2711,145 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>66680</v>
       </c>
       <c r="C6" t="n">
-        <v>66419.5</v>
+        <v>22.94161125</v>
       </c>
       <c r="D6" t="n">
-        <v>22.94161125</v>
+        <v>1896.830405924987</v>
       </c>
       <c r="E6" t="n">
-        <v>1896.830405924987</v>
+        <v>0.2303573947764781</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2303573947764781</v>
+        <v>0.02492842912137305</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02492842912137305</v>
+        <v>0.00519115414375045</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00519115414375045</v>
+        <v>0.03535892507606343</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03535892507606343</v>
+        <v>0.0004551535430846</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0004551535430846</v>
+        <v>0.0679872368417518</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0679872368417518</v>
+        <v>0.09802792647468958</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09802792647468958</v>
+        <v>0.1439386679801835</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1439386679801835</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
-        <v>38</v>
+        <v>10.55</v>
       </c>
       <c r="O6" t="n">
-        <v>10.5875</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>17.9</v>
+        <v>15.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.775</v>
+        <v>25.6</v>
       </c>
       <c r="R6" t="n">
-        <v>25.6</v>
+        <v>58.85</v>
       </c>
       <c r="S6" t="n">
-        <v>58.85</v>
+        <v>5.1</v>
       </c>
       <c r="T6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>80.55</v>
+      </c>
+      <c r="V6" t="n">
         <v>5.1</v>
       </c>
-      <c r="U6" t="n">
-        <v>9</v>
-      </c>
-      <c r="V6" t="n">
-        <v>80.55</v>
-      </c>
       <c r="W6" t="n">
-        <v>5.1</v>
+        <v>65.3</v>
       </c>
       <c r="X6" t="n">
-        <v>65.3</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="n">
-        <v>86</v>
+        <v>60.45</v>
       </c>
       <c r="Z6" t="n">
-        <v>60.45</v>
+        <v>4.85</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.824999999999999</v>
+        <v>34.95</v>
       </c>
       <c r="AB6" t="n">
-        <v>34.875</v>
+        <v>30.95</v>
       </c>
       <c r="AC6" t="n">
-        <v>30.95</v>
+        <v>10.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.4</v>
+        <v>59.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>59.8</v>
+        <v>15.7</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.7</v>
+        <v>8.850000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.850000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.45</v>
+        <v>27.85</v>
       </c>
       <c r="AI6" t="n">
-        <v>27.85</v>
+        <v>2.55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.55</v>
+        <v>19.15</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.15</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="AL6" t="n">
-        <v>71.09999999999999</v>
+        <v>12.65</v>
       </c>
       <c r="AM6" t="n">
-        <v>12.65</v>
+        <v>23.45</v>
       </c>
       <c r="AN6" t="n">
-        <v>23.4375</v>
+        <v>8.15</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.15</v>
+        <v>30.85</v>
       </c>
       <c r="AP6" t="n">
-        <v>30.7125</v>
+        <v>2.45</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.45</v>
+        <v>7.75</v>
       </c>
       <c r="AR6" t="n">
-        <v>7.75</v>
+        <v>0.3403186003943623</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.3387235525804209</v>
+        <v>0.0026448142171474</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0026448142171474</v>
+        <v>37872</v>
       </c>
       <c r="AU6" t="n">
-        <v>37872</v>
+        <v>0.002456304854923825</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.01733188723262027</v>
       </c>
     </row>
     <row r="7">
@@ -2810,142 +2859,145 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.5</v>
+        <v>91105</v>
       </c>
       <c r="C7" t="n">
-        <v>91129.5</v>
+        <v>39.872545</v>
       </c>
       <c r="D7" t="n">
-        <v>39.872545</v>
+        <v>2675.829457170147</v>
       </c>
       <c r="E7" t="n">
-        <v>2675.829457170147</v>
+        <v>0.4219313304999609</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4219313304999609</v>
+        <v>0.0727683544384759</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0727683544384759</v>
+        <v>0.009372215873215</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009372215873215</v>
+        <v>0.0808775822537019</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0808775822537019</v>
+        <v>0.00080139837962085</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00080139837962085</v>
+        <v>0.1440880522732621</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1440880522732621</v>
+        <v>0.1245256437579884</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1245256437579884</v>
+        <v>0.2840277471264147</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2840277471264147</v>
+        <v>42</v>
       </c>
       <c r="N7" t="n">
-        <v>42</v>
+        <v>12.4</v>
       </c>
       <c r="O7" t="n">
-        <v>12.475</v>
+        <v>19.7</v>
       </c>
       <c r="P7" t="n">
-        <v>19.7</v>
+        <v>16.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.6</v>
+        <v>26.3</v>
       </c>
       <c r="R7" t="n">
-        <v>26.3</v>
+        <v>61.45</v>
       </c>
       <c r="S7" t="n">
-        <v>61.45</v>
+        <v>5.7</v>
       </c>
       <c r="T7" t="n">
-        <v>5.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="U7" t="n">
-        <v>9.25</v>
+        <v>81.80000000000001</v>
       </c>
       <c r="V7" t="n">
-        <v>81.80000000000001</v>
+        <v>5.449999999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>5.449999999999999</v>
+        <v>72.05000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>71.77500000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>67.5</v>
+        <v>5.35</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.35</v>
+        <v>39.55</v>
       </c>
       <c r="AB7" t="n">
-        <v>39.55</v>
+        <v>34.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>34.6</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>65.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>65.75</v>
+        <v>16.7</v>
       </c>
       <c r="AF7" t="n">
-        <v>16.7</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.6</v>
+        <v>13.3</v>
       </c>
       <c r="AH7" t="n">
-        <v>13.3</v>
+        <v>28.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>28.25</v>
+        <v>2.7</v>
       </c>
       <c r="AJ7" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="AP7" t="n">
         <v>2.7</v>
       </c>
-      <c r="AK7" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>33.35</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>2.725</v>
+        <v>9</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>0.3928527467746044</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3928527467746044</v>
+        <v>0.0041493921105571</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0041493921105571</v>
+        <v>45536</v>
       </c>
       <c r="AU7" t="n">
-        <v>45536</v>
+        <v>0.00377378843965455</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0221198745108202</v>
       </c>
     </row>
     <row r="8">
@@ -2955,142 +3007,145 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>152131</v>
       </c>
       <c r="C8" t="n">
-        <v>152162.75</v>
+        <v>68.31744549999999</v>
       </c>
       <c r="D8" t="n">
-        <v>68.31744549999999</v>
+        <v>3729.883937152993</v>
       </c>
       <c r="E8" t="n">
-        <v>3729.883937152993</v>
+        <v>0.5812078094683859</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5812078094683859</v>
+        <v>0.1815617691158572</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1815617691158572</v>
+        <v>0.0152728601512588</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0152728601512588</v>
+        <v>0.1690892935203231</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1690892935203231</v>
+        <v>0.00287890328435385</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00287890328435385</v>
+        <v>0.2566076717761765</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2566076717761765</v>
+        <v>0.1553087491172601</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1553087491172601</v>
+        <v>0.4444153155586452</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4444153155586452</v>
+        <v>51</v>
       </c>
       <c r="N8" t="n">
-        <v>51</v>
+        <v>16.5</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>22.55</v>
       </c>
       <c r="P8" t="n">
-        <v>22.475</v>
+        <v>17.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.6</v>
+        <v>29.925</v>
       </c>
       <c r="R8" t="n">
-        <v>29.95</v>
+        <v>66.2</v>
       </c>
       <c r="S8" t="n">
-        <v>66.2</v>
+        <v>6.35</v>
       </c>
       <c r="T8" t="n">
-        <v>6.35</v>
+        <v>10.1</v>
       </c>
       <c r="U8" t="n">
-        <v>10.1</v>
+        <v>84</v>
       </c>
       <c r="V8" t="n">
-        <v>84.02500000000001</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="W8" t="n">
-        <v>5.8125</v>
+        <v>75.80000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>75.80000000000001</v>
+        <v>87.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.75</v>
+        <v>74.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>74.825</v>
+        <v>5.85</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.85</v>
+        <v>46.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>46.125</v>
+        <v>41.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>41.525</v>
+        <v>14.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.75</v>
+        <v>68.95</v>
       </c>
       <c r="AE8" t="n">
-        <v>68.96250000000001</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>19.5</v>
+        <v>10.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.6</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>30.05</v>
       </c>
       <c r="AI8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="AM8" t="n">
         <v>30.05</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AN8" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="AP8" t="n">
         <v>2.85</v>
       </c>
-      <c r="AK8" t="n">
-        <v>23.0375</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>30.0875</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34.55</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>2.85</v>
+        <v>10.15</v>
       </c>
       <c r="AR8" t="n">
-        <v>10.1625</v>
+        <v>0.6085093839048835</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.6112187915111476</v>
+        <v>0.0072919213565562</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.007304974500644725</v>
+        <v>49403</v>
       </c>
       <c r="AU8" t="n">
-        <v>49403</v>
+        <v>0.00628433698599645</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.02882756170399093</v>
       </c>
     </row>
     <row r="9">
@@ -3100,142 +3155,145 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>3849297</v>
       </c>
       <c r="C9" t="n">
-        <v>3849297</v>
+        <v>1215.978552</v>
       </c>
       <c r="D9" t="n">
-        <v>1215.978552</v>
+        <v>19691.36652467691</v>
       </c>
       <c r="E9" t="n">
-        <v>19691.36652467691</v>
+        <v>0.8765633646928611</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8765633646928611</v>
+        <v>0.8108935750257609</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8108935750257609</v>
+        <v>0.037890457656935</v>
       </c>
       <c r="H9" t="n">
-        <v>0.037890457656935</v>
+        <v>0.7277084966989603</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7277084966989603</v>
+        <v>0.031934529209708</v>
       </c>
       <c r="J9" t="n">
-        <v>0.031934529209708</v>
+        <v>0.624636492431586</v>
       </c>
       <c r="K9" t="n">
-        <v>0.624636492431586</v>
+        <v>0.589995011111615</v>
       </c>
       <c r="L9" t="n">
-        <v>0.589995011111615</v>
+        <v>0.9877339497427484</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9877339497427484</v>
+        <v>122</v>
       </c>
       <c r="N9" t="n">
-        <v>122</v>
+        <v>31.9</v>
       </c>
       <c r="O9" t="n">
-        <v>31.9</v>
+        <v>30.05</v>
       </c>
       <c r="P9" t="n">
-        <v>30.05</v>
+        <v>24.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.95</v>
+        <v>40.65</v>
       </c>
       <c r="R9" t="n">
-        <v>40.65</v>
+        <v>70.7</v>
       </c>
       <c r="S9" t="n">
-        <v>70.7</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>8.550000000000001</v>
+        <v>12.95</v>
       </c>
       <c r="U9" t="n">
-        <v>12.95</v>
+        <v>86.75</v>
       </c>
       <c r="V9" t="n">
-        <v>86.75</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="W9" t="n">
-        <v>8.100000000000001</v>
+        <v>81.55000000000001</v>
       </c>
       <c r="X9" t="n">
-        <v>81.55000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>90.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>82.59999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.300000000000001</v>
+        <v>59.45</v>
       </c>
       <c r="AB9" t="n">
-        <v>59.45</v>
+        <v>48.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>48.5</v>
+        <v>23.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>23.4</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="AE9" t="n">
-        <v>75.40000000000001</v>
+        <v>24.7</v>
       </c>
       <c r="AF9" t="n">
-        <v>24.7</v>
+        <v>14.75</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.75</v>
+        <v>21.45</v>
       </c>
       <c r="AH9" t="n">
-        <v>21.45</v>
+        <v>34.8</v>
       </c>
       <c r="AI9" t="n">
-        <v>34.8</v>
+        <v>3.75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.75</v>
+        <v>33.8</v>
       </c>
       <c r="AK9" t="n">
-        <v>33.8</v>
+        <v>83.45</v>
       </c>
       <c r="AL9" t="n">
-        <v>83.45</v>
+        <v>17.9</v>
       </c>
       <c r="AM9" t="n">
-        <v>17.9</v>
+        <v>40.05</v>
       </c>
       <c r="AN9" t="n">
-        <v>40.05</v>
+        <v>13.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>13.75</v>
+        <v>40.6</v>
       </c>
       <c r="AP9" t="n">
-        <v>40.6</v>
+        <v>4.3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.3</v>
+        <v>19.45</v>
       </c>
       <c r="AR9" t="n">
-        <v>19.45</v>
+        <v>2.139816254416961</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.139816254416961</v>
+        <v>0.032867850373024</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.032867850373024</v>
+        <v>64090</v>
       </c>
       <c r="AU9" t="n">
-        <v>64090</v>
+        <v>0.0206177742922917</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0864870895365125</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU9"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3260,232 +3318,237 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>walk_score</t>
+          <t>pop_estimate_2021</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pop_estimate_2021</t>
+          <t>land_area_sqkm</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>land_area_sqkm</t>
+          <t>pop_per_km2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pop_per_km2</t>
+          <t>white_alone</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>white_alone</t>
+          <t>black_or_african_american_alone</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>black_or_african_american_alone</t>
+          <t>american_indian_and_alaska_native_alone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>american_indian_and_alaska_native_alone</t>
+          <t>asian_alone</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>asian_alone</t>
+          <t>native_hawaiian_and_other_pacific_islander_alone</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>native_hawaiian_and_other_pacific_islander_alone</t>
+          <t>some_other_race_alone</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>some_other_race_alone</t>
+          <t>two_or_more_races</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>two_or_more_races</t>
+          <t>hispanic_or_latino</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>hispanic_or_latino</t>
+          <t>median_aqi</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>median_aqi</t>
+          <t>access2</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>access2</t>
+          <t>arthritis</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>arthritis</t>
+          <t>binge</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>binge</t>
+          <t>bphigh</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>bphigh</t>
+          <t>bpmed</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>bpmed</t>
+          <t>cancer</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>cancer</t>
+          <t>casthma</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>casthma</t>
+          <t>cervical</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>cervical</t>
+          <t>chd</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>chd</t>
+          <t>checkup</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>checkup</t>
+          <t>cholscreen</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>cholscreen</t>
+          <t>colon_screen</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>colon_screen</t>
+          <t>copd</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>copd</t>
+          <t>corem</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>corem</t>
+          <t>corew</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>corew</t>
+          <t>csmoking</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>csmoking</t>
+          <t>dental</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>dental</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>diabetes</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>diabetes</t>
+          <t>ghlth</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>ghlth</t>
+          <t>highchol</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>highchol</t>
+          <t>kidney</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>kidney</t>
+          <t>lpa</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>lpa</t>
+          <t>mammouse</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>mammouse</t>
+          <t>mhlth</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>mhlth</t>
+          <t>obesity</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>obesity</t>
+          <t>phlth</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>phlth</t>
+          <t>sleep</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>teethlost</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>teethlost</t>
+          <t>cumulative_confirmed</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_confirmed</t>
+          <t>cumulative_deceased</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>cumulative_deceased</t>
+          <t>living_wage</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>living_wage</t>
+          <t>violent_crime</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>property_crime</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3559,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C2" t="n">
         <v>540</v>
@@ -3529,109 +3592,112 @@
         <v>540</v>
       </c>
       <c r="M2" t="n">
-        <v>540</v>
+        <v>498</v>
       </c>
       <c r="N2" t="n">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="O2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Q2" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="R2" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="S2" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="T2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="U2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="V2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="W2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="X2" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Y2" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Z2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AA2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AB2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AC2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AD2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AE2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AH2" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AI2" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AJ2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AK2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AL2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AM2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AN2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AO2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AP2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AQ2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AR2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AS2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AT2" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AU2" t="n">
-        <v>539</v>
+        <v>437</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>437</v>
       </c>
     </row>
     <row r="3">
@@ -3641,142 +3707,145 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.8037037037037</v>
+        <v>137847.9686346863</v>
       </c>
       <c r="C3" t="n">
-        <v>136610.8648148148</v>
+        <v>148.2703375592592</v>
       </c>
       <c r="D3" t="n">
-        <v>148.2703375592592</v>
+        <v>1073.831409380376</v>
       </c>
       <c r="E3" t="n">
-        <v>1073.831409380376</v>
+        <v>0.5714054273938761</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5714054273938761</v>
+        <v>0.1284769322236057</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1284769322236057</v>
+        <v>0.01043875374549677</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01043875374549677</v>
+        <v>0.0668347522361889</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0668347522361889</v>
+        <v>0.002979458372157559</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00297945837215756</v>
+        <v>0.0942938936425803</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09429389364258028</v>
+        <v>0.1189184103078324</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1189184103078325</v>
+        <v>0.221881693038928</v>
       </c>
       <c r="M3" t="n">
-        <v>0.221881693038928</v>
+        <v>46.67269076305221</v>
       </c>
       <c r="N3" t="n">
-        <v>46.67338709677419</v>
+        <v>16.94935424354243</v>
       </c>
       <c r="O3" t="n">
-        <v>16.96351851851852</v>
+        <v>22.70239852398524</v>
       </c>
       <c r="P3" t="n">
-        <v>22.69907407407407</v>
+        <v>16.84621771217712</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.85018518518519</v>
+        <v>30.28974121996303</v>
       </c>
       <c r="R3" t="n">
-        <v>30.28024118738404</v>
+        <v>64.09861367837338</v>
       </c>
       <c r="S3" t="n">
-        <v>64.08209647495362</v>
+        <v>5.968450184501846</v>
       </c>
       <c r="T3" t="n">
-        <v>5.967962962962963</v>
+        <v>9.701199261992619</v>
       </c>
       <c r="U3" t="n">
-        <v>9.69675925925926</v>
+        <v>81.56900369003689</v>
       </c>
       <c r="V3" t="n">
-        <v>81.55916666666666</v>
+        <v>5.925738007380073</v>
       </c>
       <c r="W3" t="n">
-        <v>5.92462962962963</v>
+        <v>72.08321033210331</v>
       </c>
       <c r="X3" t="n">
-        <v>72.0710185185185</v>
+        <v>85.26210720887246</v>
       </c>
       <c r="Y3" t="n">
-        <v>85.25760667903525</v>
+        <v>69.02500000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>69.00518518518518</v>
+        <v>6.102767527675277</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.100462962962963</v>
+        <v>43.86771217712177</v>
       </c>
       <c r="AB3" t="n">
-        <v>43.85027777777778</v>
+        <v>37.42666051660517</v>
       </c>
       <c r="AC3" t="n">
-        <v>37.41657407407408</v>
+        <v>15.25774907749078</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.24666666666667</v>
+        <v>62.87352398523985</v>
       </c>
       <c r="AE3" t="n">
-        <v>62.86648148148149</v>
+        <v>19.80036900369004</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.79611111111111</v>
+        <v>10.48920664206642</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.48703703703704</v>
+        <v>14.74852398523985</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.74796296296296</v>
+        <v>30.11460258780037</v>
       </c>
       <c r="AI3" t="n">
-        <v>30.11317254174397</v>
+        <v>2.840405904059041</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.840092592592593</v>
+        <v>22.90590405904059</v>
       </c>
       <c r="AK3" t="n">
-        <v>22.89601851851852</v>
+        <v>72.07933579335793</v>
       </c>
       <c r="AL3" t="n">
-        <v>72.06759259259259</v>
+        <v>14.5659594095941</v>
       </c>
       <c r="AM3" t="n">
-        <v>14.5637962962963</v>
+        <v>32.75036900369004</v>
       </c>
       <c r="AN3" t="n">
-        <v>32.7400925925926</v>
+        <v>10.05359778597786</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.05268518518519</v>
+        <v>33.22656826568267</v>
       </c>
       <c r="AP3" t="n">
-        <v>33.21305555555556</v>
+        <v>2.896309963099631</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.895740740740741</v>
+        <v>10.584963099631</v>
       </c>
       <c r="AR3" t="n">
-        <v>10.57916666666667</v>
+        <v>0.489324769553685</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.4900853949602518</v>
+        <v>0.005471986927244098</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.00547787822884339</v>
+        <v>37008.9168207024</v>
       </c>
       <c r="AU3" t="n">
-        <v>37009.68460111317</v>
+        <v>0.003901534999673467</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.02522018469731577</v>
       </c>
     </row>
     <row r="4">
@@ -3786,142 +3855,145 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.021638859112763</v>
+        <v>186166.553424657</v>
       </c>
       <c r="C4" t="n">
-        <v>183625.0488544823</v>
+        <v>190.1712092315286</v>
       </c>
       <c r="D4" t="n">
-        <v>190.1712092315286</v>
+        <v>471.3534753829844</v>
       </c>
       <c r="E4" t="n">
-        <v>471.3534753829844</v>
+        <v>0.179017739746807</v>
       </c>
       <c r="F4" t="n">
-        <v>0.179017739746807</v>
+        <v>0.1449768975740522</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1449768975740522</v>
+        <v>0.01131414137009806</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01131414137009806</v>
+        <v>0.08471685420568589</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08471685420568589</v>
+        <v>0.006858268535263219</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006858268535263218</v>
+        <v>0.08561435191715751</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08561435191715751</v>
+        <v>0.06212183299487441</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06212183299487441</v>
+        <v>0.1866236112253133</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1866236112253133</v>
+        <v>17.78349836430375</v>
       </c>
       <c r="N4" t="n">
-        <v>17.81459444307014</v>
+        <v>7.214840460636058</v>
       </c>
       <c r="O4" t="n">
-        <v>7.22260691695432</v>
+        <v>2.953440889949036</v>
       </c>
       <c r="P4" t="n">
-        <v>2.958401933174974</v>
+        <v>2.374021735021571</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.376926025591557</v>
+        <v>3.79135726790669</v>
       </c>
       <c r="R4" t="n">
-        <v>3.792354877635887</v>
+        <v>3.776212451910075</v>
       </c>
       <c r="S4" t="n">
-        <v>3.773421216668982</v>
+        <v>0.6265690075113182</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6274129809929639</v>
+        <v>0.8760066514485373</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8745757823534949</v>
+        <v>2.584978740118092</v>
       </c>
       <c r="V4" t="n">
-        <v>2.580112366496406</v>
+        <v>0.8144983087789597</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8153927607125888</v>
+        <v>4.197295188817937</v>
       </c>
       <c r="X4" t="n">
-        <v>4.199763430879431</v>
+        <v>2.367463949344939</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.368090148794543</v>
+        <v>5.954807273731268</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.955562947472006</v>
+        <v>1.290363722891321</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.291097952348668</v>
+        <v>6.295424939020868</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.296570091202027</v>
+        <v>6.128037329150216</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.1353312645273</v>
+        <v>3.339288183270891</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.334974889547845</v>
+        <v>6.431235521361089</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.433785521089575</v>
+        <v>2.957196156112876</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.959927741099329</v>
+        <v>1.877977910680983</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.880181404453714</v>
+        <v>3.490783698582942</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.492930246296121</v>
+        <v>2.120575847524535</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.124363659349043</v>
+        <v>0.34436340770176</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.3446907015316689</v>
+        <v>4.453880757523553</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.454278954164379</v>
+        <v>3.721151154765049</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.722779466744643</v>
+        <v>1.410198168522652</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.410913411948423</v>
+        <v>4.868724915571905</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.872570893862394</v>
+        <v>1.613067870929272</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.614333757750474</v>
+        <v>3.427428889550916</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.426092301298839</v>
+        <v>0.450698000305206</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.4510659477794833</v>
+        <v>2.575601772463654</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.570029606826134</v>
+        <v>0.3323695402579243</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.3326147512380923</v>
+        <v>0.004818233923758406</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.004824345215228242</v>
+        <v>4984.819577190579</v>
       </c>
       <c r="AU4" t="n">
-        <v>4991.164529576758</v>
+        <v>0.003022248233256335</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.01208679166989874</v>
       </c>
     </row>
     <row r="5">
@@ -3931,142 +4003,145 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>50315</v>
       </c>
       <c r="C5" t="n">
-        <v>50315</v>
+        <v>17.937313</v>
       </c>
       <c r="D5" t="n">
-        <v>17.937313</v>
+        <v>99.54163110189056</v>
       </c>
       <c r="E5" t="n">
-        <v>99.54163110189056</v>
+        <v>0.034390973981119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.034390973981119</v>
+        <v>0.0029612156041005</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0029612156041005</v>
+        <v>0.0015353683056114</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0015353683056114</v>
+        <v>0.0019173069886571</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0019173069886571</v>
+        <v>7.528514247713214e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>7.528514247713214e-05</v>
+        <v>0.0073367697594501</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0073367697594501</v>
+        <v>0.0242052336723178</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0242052336723178</v>
+        <v>0.0198678125558224</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0198678125558224</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>5.6</v>
+        <v>16.2</v>
       </c>
       <c r="P5" t="n">
-        <v>16.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.699999999999999</v>
+        <v>20.75</v>
       </c>
       <c r="R5" t="n">
-        <v>20.75</v>
+        <v>53.05</v>
       </c>
       <c r="S5" t="n">
-        <v>53.05</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="U5" t="n">
-        <v>7.8</v>
+        <v>71.94999999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>71.94999999999999</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>4.300000000000001</v>
+        <v>64.05000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>64.05000000000001</v>
+        <v>78.55000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.55000000000001</v>
+        <v>54.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>54.9</v>
+        <v>3.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.75</v>
+        <v>29.95</v>
       </c>
       <c r="AB5" t="n">
-        <v>29.95</v>
+        <v>24.45</v>
       </c>
       <c r="AC5" t="n">
-        <v>24.45</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>42.55</v>
       </c>
       <c r="AE5" t="n">
-        <v>42.55</v>
+        <v>12.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.300000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.25</v>
+        <v>23.65</v>
       </c>
       <c r="AI5" t="n">
-        <v>23.65</v>
+        <v>2.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.2</v>
+        <v>12.35</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.35</v>
+        <v>60.35</v>
       </c>
       <c r="AL5" t="n">
-        <v>60.35</v>
+        <v>10.35</v>
       </c>
       <c r="AM5" t="n">
-        <v>10.35</v>
+        <v>17.35</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.35</v>
+        <v>6.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.75</v>
+        <v>23.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23.5</v>
+        <v>2.05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.05</v>
+        <v>5.449999999999999</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.449999999999999</v>
+        <v>0.0224467130835931</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0224467130835931</v>
+        <v>0.000384434667464</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.000384434667464</v>
+        <v>29353</v>
       </c>
       <c r="AU5" t="n">
-        <v>29353</v>
+        <v>0.0003160181710448</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.005377941526028</v>
       </c>
     </row>
     <row r="6">
@@ -4076,142 +4151,145 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.75</v>
+        <v>63981.25</v>
       </c>
       <c r="C6" t="n">
-        <v>64057.75</v>
+        <v>62.58746325</v>
       </c>
       <c r="D6" t="n">
-        <v>62.58746325</v>
+        <v>720.1234237510482</v>
       </c>
       <c r="E6" t="n">
-        <v>720.1234237510482</v>
+        <v>0.4461131570926552</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4461131570926552</v>
+        <v>0.0323063828316467</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0323063828316467</v>
+        <v>0.00396433077074185</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00396433077074185</v>
+        <v>0.02199238079717715</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02199238079717715</v>
+        <v>0.00049958598096415</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00049958598096415</v>
+        <v>0.03190561875820713</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03190561875820713</v>
+        <v>0.07437994424620703</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07437994424620703</v>
+        <v>0.0785822074340493</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0785822074340493</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
-        <v>38</v>
+        <v>11.5875</v>
       </c>
       <c r="O6" t="n">
-        <v>11.6625</v>
+        <v>20.6</v>
       </c>
       <c r="P6" t="n">
-        <v>20.6</v>
+        <v>15.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.5</v>
+        <v>27.45</v>
       </c>
       <c r="R6" t="n">
-        <v>27.425</v>
+        <v>60.95</v>
       </c>
       <c r="S6" t="n">
-        <v>60.95</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>80.05</v>
       </c>
       <c r="V6" t="n">
-        <v>80.05</v>
+        <v>5.35</v>
       </c>
       <c r="W6" t="n">
-        <v>5.337499999999999</v>
+        <v>68.77500000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>68.75</v>
+        <v>83.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.8</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>64.09999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.1875</v>
+        <v>39.5875</v>
       </c>
       <c r="AB6" t="n">
-        <v>39.55</v>
+        <v>33.21250000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>33.1875</v>
+        <v>12.9375</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.8875</v>
+        <v>58.6125</v>
       </c>
       <c r="AE6" t="n">
-        <v>58.575</v>
+        <v>17.45</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.4375</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>12.2</v>
+        <v>28.55</v>
       </c>
       <c r="AI6" t="n">
-        <v>28.55</v>
+        <v>2.55</v>
       </c>
       <c r="AJ6" t="n">
+        <v>19.675</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>69.34999999999999</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>8.712499999999999</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP6" t="n">
         <v>2.55</v>
       </c>
-      <c r="AK6" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>69.34999999999999</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>31</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>2.55</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="AR6" t="n">
-        <v>8.600000000000001</v>
+        <v>0.3217436477397584</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.3217436477397584</v>
+        <v>0.00281422792936155</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.00281816705899985</v>
+        <v>33575</v>
       </c>
       <c r="AU6" t="n">
-        <v>33567</v>
+        <v>0.0016642547033285</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0162429777662231</v>
       </c>
     </row>
     <row r="7">
@@ -4221,142 +4299,145 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>85767</v>
       </c>
       <c r="C7" t="n">
-        <v>85767</v>
+        <v>92.618746</v>
       </c>
       <c r="D7" t="n">
-        <v>92.618746</v>
+        <v>1006.449956505799</v>
       </c>
       <c r="E7" t="n">
-        <v>1006.449956505799</v>
+        <v>0.5769268916484498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5769268916484498</v>
+        <v>0.0723204805015923</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0723204805015923</v>
+        <v>0.0072761350958993</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0072761350958993</v>
+        <v>0.03932765152896685</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03932765152896685</v>
+        <v>0.00097048147328285</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00097048147328285</v>
+        <v>0.06639549979796799</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06639549979796799</v>
+        <v>0.1082272637413667</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1082272637413667</v>
+        <v>0.165056112246344</v>
       </c>
       <c r="M7" t="n">
-        <v>0.165056112246344</v>
+        <v>42</v>
       </c>
       <c r="N7" t="n">
-        <v>42</v>
+        <v>15.75</v>
       </c>
       <c r="O7" t="n">
-        <v>15.75</v>
+        <v>21.975</v>
       </c>
       <c r="P7" t="n">
-        <v>21.95</v>
+        <v>16.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.95</v>
+        <v>29.65</v>
       </c>
       <c r="R7" t="n">
-        <v>29.65</v>
+        <v>64.8</v>
       </c>
       <c r="S7" t="n">
-        <v>64.8</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>5.949999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>9.699999999999999</v>
+        <v>81.55</v>
       </c>
       <c r="V7" t="n">
-        <v>81.55</v>
+        <v>5.8</v>
       </c>
       <c r="W7" t="n">
-        <v>5.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>72.075</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.34999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>70.72499999999999</v>
+        <v>5.85</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.85</v>
+        <v>44.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>44.275</v>
+        <v>37.525</v>
       </c>
       <c r="AC7" t="n">
-        <v>37.45</v>
+        <v>15.375</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.375</v>
+        <v>63.225</v>
       </c>
       <c r="AE7" t="n">
-        <v>63.225</v>
+        <v>19.65</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.65</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>14.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>14.375</v>
+        <v>30.15</v>
       </c>
       <c r="AI7" t="n">
-        <v>30.1</v>
+        <v>2.85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.85</v>
+        <v>22.15</v>
       </c>
       <c r="AK7" t="n">
-        <v>22.15</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="AL7" t="n">
-        <v>72.09999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="AM7" t="n">
-        <v>14.7</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="AN7" t="n">
-        <v>32.85</v>
+        <v>10.05</v>
       </c>
       <c r="AO7" t="n">
-        <v>10.05</v>
+        <v>33.6</v>
       </c>
       <c r="AP7" t="n">
-        <v>33.6</v>
+        <v>2.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.9</v>
+        <v>10.8</v>
       </c>
       <c r="AR7" t="n">
-        <v>10.8</v>
+        <v>0.3987232556025056</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.3987232556025056</v>
+        <v>0.0043550812191687</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0043550812191687</v>
+        <v>36193</v>
       </c>
       <c r="AU7" t="n">
-        <v>36193</v>
+        <v>0.0032609479835509</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0235103285192206</v>
       </c>
     </row>
     <row r="8">
@@ -4366,142 +4447,145 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>126558.5</v>
       </c>
       <c r="C8" t="n">
-        <v>126179.5</v>
+        <v>159.531147</v>
       </c>
       <c r="D8" t="n">
-        <v>159.531147</v>
+        <v>1370.385022880057</v>
       </c>
       <c r="E8" t="n">
-        <v>1370.385022880057</v>
+        <v>0.7247596808993633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7247596808993633</v>
+        <v>0.1753379332862674</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1753379332862674</v>
+        <v>0.01258233386814328</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01258233386814328</v>
+        <v>0.07629833107554537</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07629833107554537</v>
+        <v>0.002747875067358325</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002747875067358325</v>
+        <v>0.126738705754029</v>
       </c>
       <c r="K8" t="n">
-        <v>0.126738705754029</v>
+        <v>0.1475163776780107</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1475163776780107</v>
+        <v>0.3121263013622501</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3121263013622501</v>
+        <v>48</v>
       </c>
       <c r="N8" t="n">
-        <v>48</v>
+        <v>19.65</v>
       </c>
       <c r="O8" t="n">
-        <v>19.6625</v>
+        <v>24.45</v>
       </c>
       <c r="P8" t="n">
-        <v>24.45</v>
+        <v>18.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.15</v>
+        <v>32.7</v>
       </c>
       <c r="R8" t="n">
-        <v>32.625</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>66.90000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>6.4</v>
+        <v>10.2</v>
       </c>
       <c r="U8" t="n">
-        <v>10.2</v>
+        <v>83.25</v>
       </c>
       <c r="V8" t="n">
-        <v>83.25</v>
+        <v>6.5</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>75.55000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>75.55000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>86.90000000000001</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>73.65000000000001</v>
+        <v>6.924999999999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.875</v>
+        <v>48.975</v>
       </c>
       <c r="AB8" t="n">
-        <v>48.925</v>
+        <v>42.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>42.4</v>
+        <v>17.425</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.375</v>
+        <v>67.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>67.2</v>
+        <v>22.15</v>
       </c>
       <c r="AF8" t="n">
-        <v>22.15</v>
+        <v>11.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.6</v>
+        <v>16.8875</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.8625</v>
+        <v>31.45</v>
       </c>
       <c r="AI8" t="n">
-        <v>31.45</v>
+        <v>3.05</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3.05</v>
+        <v>25.8375</v>
       </c>
       <c r="AK8" t="n">
-        <v>25.8125</v>
+        <v>74.78750000000001</v>
       </c>
       <c r="AL8" t="n">
-        <v>74.7625</v>
+        <v>15.6</v>
       </c>
       <c r="AM8" t="n">
-        <v>15.6</v>
+        <v>36.1375</v>
       </c>
       <c r="AN8" t="n">
-        <v>36.1125</v>
+        <v>11.1375</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.1125</v>
+        <v>35.3</v>
       </c>
       <c r="AP8" t="n">
-        <v>35.3</v>
+        <v>3.2375</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.2125</v>
+        <v>12.4375</v>
       </c>
       <c r="AR8" t="n">
-        <v>12.4125</v>
+        <v>0.5606638123891963</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5613161573273401</v>
+        <v>0.006560120465342625</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0065750032326446</v>
+        <v>38821</v>
       </c>
       <c r="AU8" t="n">
-        <v>38821</v>
+        <v>0.0049732040795118</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.032688633894792</v>
       </c>
     </row>
     <row r="9">
@@ -4511,142 +4595,145 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>2288250</v>
       </c>
       <c r="C9" t="n">
-        <v>2288250</v>
+        <v>1935.461994</v>
       </c>
       <c r="D9" t="n">
-        <v>1935.461994</v>
+        <v>3329.036043801083</v>
       </c>
       <c r="E9" t="n">
-        <v>3329.036043801083</v>
+        <v>0.8772403390032352</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8772403390032352</v>
+        <v>0.8957771125949804</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8957771125949804</v>
+        <v>0.1293053659561062</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1293053659561062</v>
+        <v>0.7234655931220361</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7234655931220361</v>
+        <v>0.0994304238149048</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0994304238149048</v>
+        <v>0.4924769516799877</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4924769516799877</v>
+        <v>0.537042887607614</v>
       </c>
       <c r="L9" t="n">
-        <v>0.537042887607614</v>
+        <v>0.9479412694756648</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9479412694756648</v>
+        <v>122</v>
       </c>
       <c r="N9" t="n">
-        <v>122</v>
+        <v>49.85</v>
       </c>
       <c r="O9" t="n">
-        <v>49.85</v>
+        <v>31.95</v>
       </c>
       <c r="P9" t="n">
-        <v>31.95</v>
+        <v>24.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.75</v>
+        <v>44.6</v>
       </c>
       <c r="R9" t="n">
-        <v>44.6</v>
+        <v>72</v>
       </c>
       <c r="S9" t="n">
-        <v>72</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>8.550000000000001</v>
+        <v>12.95</v>
       </c>
       <c r="U9" t="n">
-        <v>12.95</v>
+        <v>87.5</v>
       </c>
       <c r="V9" t="n">
-        <v>87.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>9.199999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>82.19999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>90.40000000000001</v>
+        <v>81.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>81.25</v>
+        <v>10.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.8</v>
+        <v>59.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>59.3</v>
+        <v>52.55</v>
       </c>
       <c r="AC9" t="n">
-        <v>52.55</v>
+        <v>23.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>23.4</v>
+        <v>77.44999999999999</v>
       </c>
       <c r="AE9" t="n">
-        <v>77.44999999999999</v>
+        <v>27.55</v>
       </c>
       <c r="AF9" t="n">
-        <v>27.55</v>
+        <v>18.55</v>
       </c>
       <c r="AG9" t="n">
-        <v>18.55</v>
+        <v>28.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>28.4</v>
+        <v>38.45</v>
       </c>
       <c r="AI9" t="n">
-        <v>38.45</v>
+        <v>4.15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.15</v>
+        <v>37.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>37.6</v>
+        <v>83.45</v>
       </c>
       <c r="AL9" t="n">
-        <v>83.45</v>
+        <v>17.9</v>
       </c>
       <c r="AM9" t="n">
-        <v>17.9</v>
+        <v>48.85</v>
       </c>
       <c r="AN9" t="n">
-        <v>48.85</v>
+        <v>15.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>15.3</v>
+        <v>42.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>42.5</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5</v>
+        <v>18.9</v>
       </c>
       <c r="AR9" t="n">
-        <v>18.9</v>
+        <v>4.373843816702882</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.373843816702882</v>
+        <v>0.06424629348306821</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.06424629348306821</v>
+        <v>64090</v>
       </c>
       <c r="AU9" t="n">
-        <v>64090</v>
+        <v>0.019688693528538</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0777026230821804</v>
       </c>
     </row>
   </sheetData>
